--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_6_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_6_matched_error_tables_latest.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.4469980202908918</v>
+        <v>-0.1243020608379911</v>
       </c>
       <c r="C2">
-        <v>1.916316359496972</v>
+        <v>2.131588938050424</v>
       </c>
       <c r="D2">
-        <v>20.12904518653603</v>
+        <v>21.22560083334914</v>
       </c>
       <c r="E2">
-        <v>4.486540447442331</v>
+        <v>4.607125007349935</v>
       </c>
       <c r="F2">
-        <v>4.574461701032337</v>
+        <v>4.713826149300701</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2861070907787265</v>
+        <v>-0.246485675231136</v>
       </c>
       <c r="C3">
-        <v>1.917725412871049</v>
+        <v>2.345373773945208</v>
       </c>
       <c r="D3">
-        <v>14.35849250254161</v>
+        <v>19.33065173826034</v>
       </c>
       <c r="E3">
-        <v>3.789260152396719</v>
+        <v>4.396663705386204</v>
       </c>
       <c r="F3">
-        <v>3.87660122912187</v>
+        <v>4.498154218974101</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5610908140914193</v>
+        <v>-0.6924834931754604</v>
       </c>
       <c r="C4">
-        <v>1.742333978456074</v>
+        <v>1.814664499321882</v>
       </c>
       <c r="D4">
-        <v>10.81810936914359</v>
+        <v>10.78567221865277</v>
       </c>
       <c r="E4">
-        <v>3.289089443773701</v>
+        <v>3.284154719049146</v>
       </c>
       <c r="F4">
-        <v>3.329685027498269</v>
+        <v>3.29371631896608</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.2040176260513471</v>
+        <v>-0.2778078423057671</v>
       </c>
       <c r="C5">
-        <v>1.658464382849985</v>
+        <v>1.655704769799213</v>
       </c>
       <c r="D5">
-        <v>12.65915235182667</v>
+        <v>12.12863580349151</v>
       </c>
       <c r="E5">
-        <v>3.557970257299331</v>
+        <v>3.482619101120809</v>
       </c>
       <c r="F5">
-        <v>3.655097366382901</v>
+        <v>3.56664885913509</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01928640243020597</v>
+        <v>-0.2358027714400601</v>
       </c>
       <c r="C6">
-        <v>1.594156863116193</v>
+        <v>1.759610300011659</v>
       </c>
       <c r="D6">
-        <v>10.02439115440843</v>
+        <v>10.62893045379797</v>
       </c>
       <c r="E6">
-        <v>3.166131891505538</v>
+        <v>3.260204050944967</v>
       </c>
       <c r="F6">
-        <v>3.263513503634977</v>
+        <v>3.345936034707538</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1728458585553033</v>
+        <v>-0.298460077026763</v>
       </c>
       <c r="C7">
-        <v>1.835149646908238</v>
+        <v>1.862981289594231</v>
       </c>
       <c r="D7">
-        <v>11.55648833809225</v>
+        <v>11.19011793689163</v>
       </c>
       <c r="E7">
-        <v>3.399483539906062</v>
+        <v>3.345163364753899</v>
       </c>
       <c r="F7">
-        <v>3.506430305941362</v>
+        <v>3.434363767755224</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.02154636289222202</v>
+        <v>-0.1522653927570955</v>
       </c>
       <c r="C8">
-        <v>1.820446442439114</v>
+        <v>1.879133647755224</v>
       </c>
       <c r="D8">
-        <v>12.53586090047673</v>
+        <v>12.22827700966262</v>
       </c>
       <c r="E8">
-        <v>3.540601770953172</v>
+        <v>3.496895338677241</v>
       </c>
       <c r="F8">
-        <v>3.664803150246981</v>
+        <v>3.608152585070817</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
